--- a/LeetCodeStats.xlsx
+++ b/LeetCodeStats.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -549,6 +549,149 @@
         <v>2</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>1590</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Unsub.</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>2463</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Unsub.</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
